--- a/script_master_data_beltran/ficherosExcelOrigen/DED-NAUA_Plantilla_Adopcion IA.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-NAUA_Plantilla_Adopcion IA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF5894B-F6F4-420D-8542-9082FF57B71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9267CFB5-8C02-4EC2-BDB9-67100C61D20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16125" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-16125" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="459">
   <si>
     <t>GISS-DED - Adopción IA: &lt;Proyecto XXX&gt;</t>
   </si>
@@ -1430,6 +1430,15 @@
   </si>
   <si>
     <t>Media Calidad</t>
+  </si>
+  <si>
+    <t>prompts</t>
+  </si>
+  <si>
+    <t>Analisis Desa APIs</t>
+  </si>
+  <si>
+    <t>Comprender Codigo Fuente</t>
   </si>
 </sst>
 </file>
@@ -21517,10 +21526,10 @@
   <dimension ref="A1:BS197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="AQ6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomRight" activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -21534,10 +21543,11 @@
     <col min="42" max="42" width="94.453125" style="133" customWidth="1"/>
     <col min="43" max="43" width="29.1796875" style="1" customWidth="1"/>
     <col min="44" max="44" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="46" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J1" s="1">
         <f>SUM(J6:J155)</f>
         <v>14.849999999999989</v>
@@ -21571,19 +21581,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:45" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="81"/>
       <c r="B3" s="81" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>2</v>
@@ -21635,7 +21645,7 @@
       <c r="AO4" s="6"/>
       <c r="AP4" s="134"/>
     </row>
-    <row r="5" spans="1:44" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:45" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -21768,8 +21778,11 @@
       <c r="AR5" s="25" t="s">
         <v>21</v>
       </c>
+      <c r="AS5" t="s">
+        <v>456</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -21832,8 +21845,11 @@
         <f>IF(D6="","",IF(OR(H6="S",M6="S",R6="S",W6="S",AB6="S",AG6="S",AL6="S"),"S","N"))</f>
         <v>N</v>
       </c>
+      <c r="AS6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -21896,8 +21912,11 @@
         <f t="shared" ref="AR7:AR70" si="1">IF(D7="","",IF(OR(H7="S",M7="S",R7="S",W7="S",AB7="S",AG7="S",AL7="S"),"S","N"))</f>
         <v>N</v>
       </c>
+      <c r="AS7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -21960,8 +21979,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
+      <c r="AS8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -22038,8 +22060,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
+      <c r="AS9" t="s">
+        <v>458</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>22</v>
@@ -22100,8 +22125,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
+      <c r="AS10" t="s">
+        <v>457</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
@@ -22176,8 +22204,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
+      <c r="AS11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -22252,8 +22283,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
+      <c r="AS12" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
@@ -22329,7 +22363,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>22</v>
@@ -22405,7 +22439,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
         <v>22</v>
@@ -22481,7 +22515,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:45" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>22</v>
@@ -40025,15 +40059,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
@@ -40045,6 +40070,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40249,19 +40283,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/script_master_data_beltran/ficherosExcelOrigen/DED-NAUA_Plantilla_Adopcion IA.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-NAUA_Plantilla_Adopcion IA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9267CFB5-8C02-4EC2-BDB9-67100C61D20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50058CCF-9E9C-4984-BFCE-8A2D7863EBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-16125" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="457">
   <si>
     <t>GISS-DED - Adopción IA: &lt;Proyecto XXX&gt;</t>
   </si>
@@ -1433,19 +1433,13 @@
   </si>
   <si>
     <t>prompts</t>
-  </si>
-  <si>
-    <t>Analisis Desa APIs</t>
-  </si>
-  <si>
-    <t>Comprender Codigo Fuente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1590,6 +1584,14 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -2463,7 +2465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2753,6 +2755,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -21525,25 +21528,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="AQ6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="F159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS13" sqref="AS13"/>
+      <selection pane="bottomRight" activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="7.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="1" customWidth="1"/>
     <col min="7" max="41" width="9.1796875" style="1"/>
     <col min="42" max="42" width="94.453125" style="133" customWidth="1"/>
     <col min="43" max="43" width="29.1796875" style="1" customWidth="1"/>
     <col min="44" max="44" width="14.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="46" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
@@ -21782,12 +21785,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="106" t="s">
         <v>24</v>
@@ -21845,16 +21848,16 @@
         <f>IF(D6="","",IF(OR(H6="S",M6="S",R6="S",W6="S",AB6="S",AG6="S",AL6="S"),"S","N"))</f>
         <v>N</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AS6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="106" t="s">
         <v>24</v>
@@ -21912,16 +21915,16 @@
         <f t="shared" ref="AR7:AR70" si="1">IF(D7="","",IF(OR(H7="S",M7="S",R7="S",W7="S",AB7="S",AG7="S",AL7="S"),"S","N"))</f>
         <v>N</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8" s="106" t="s">
         <v>24</v>
@@ -21979,16 +21982,16 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AS8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="106" t="s">
         <v>24</v>
@@ -22060,11 +22063,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS9" t="s">
-        <v>458</v>
+      <c r="AS9" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>22</v>
@@ -22125,16 +22128,16 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS10" t="s">
-        <v>457</v>
+      <c r="AS10" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C11" s="106" t="s">
         <v>24</v>
@@ -22204,16 +22207,16 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AS11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>24</v>
@@ -22283,7 +22286,7 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AS12" s="169" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22292,7 +22295,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C13" s="106" t="s">
         <v>24</v>
@@ -22624,7 +22627,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="106" t="s">
         <v>24</v>
@@ -22700,7 +22703,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C18" s="106" t="s">
         <v>24</v>
@@ -23846,7 +23849,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C34" s="120" t="s">
         <v>76</v>
@@ -23924,7 +23927,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="120" t="s">
         <v>76</v>
@@ -24000,7 +24003,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" s="120" t="s">
         <v>76</v>
@@ -24938,7 +24941,7 @@
         <v>23</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48" s="121" t="s">
         <v>98</v>
@@ -25026,7 +25029,7 @@
         <v>29</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C49" s="121" t="s">
         <v>98</v>
@@ -25122,7 +25125,7 @@
         <v>29</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C50" s="121" t="s">
         <v>98</v>
@@ -25304,7 +25307,7 @@
         <v>23</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" s="121" t="s">
         <v>98</v>
@@ -25842,7 +25845,7 @@
         <v>29</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C58" s="121" t="s">
         <v>98</v>
@@ -26001,7 +26004,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="60" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
         <v>22</v>
@@ -26095,7 +26098,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="61" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
         <v>22</v>
@@ -26197,7 +26200,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="62" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
         <v>22</v>
@@ -26363,7 +26366,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="64" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
         <v>22</v>
@@ -26531,7 +26534,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="66" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
         <v>22</v>
@@ -26645,7 +26648,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="67" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
         <v>22</v>
@@ -26717,7 +26720,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="68" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
         <v>22</v>
@@ -26827,12 +26830,12 @@
         <v>S</v>
       </c>
     </row>
-    <row r="69" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:44" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C69" s="106" t="s">
         <v>159</v>
@@ -26895,7 +26898,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="70" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="s">
         <v>22</v>
@@ -27039,7 +27042,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="72" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
       <c r="B72" s="9" t="s">
         <v>22</v>
@@ -27099,7 +27102,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="73" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="9" t="s">
         <v>22</v>
@@ -27159,7 +27162,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="74" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="s">
         <v>22</v>
@@ -27256,7 +27259,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C75" s="106" t="s">
         <v>159</v>
@@ -27493,7 +27496,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="78" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
         <v>22</v>
@@ -27577,7 +27580,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="79" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:44" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
         <v>22</v>
@@ -27669,7 +27672,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="80" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
         <v>22</v>
@@ -27763,7 +27766,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="81" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="9" t="s">
         <v>22</v>
@@ -27847,7 +27850,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="82" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
         <v>22</v>
@@ -28101,7 +28104,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="85" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A85" s="9"/>
       <c r="B85" s="9" t="s">
         <v>22</v>
@@ -28271,7 +28274,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="87" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="9" t="s">
         <v>22</v>
@@ -28363,7 +28366,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="88" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="s">
         <v>22</v>
@@ -28423,7 +28426,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="89" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A89" s="9"/>
       <c r="B89" s="9" t="s">
         <v>22</v>
@@ -28499,7 +28502,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="90" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A90" s="9"/>
       <c r="B90" s="9" t="s">
         <v>22</v>
@@ -28583,7 +28586,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="91" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A91" s="9"/>
       <c r="B91" s="9" t="s">
         <v>22</v>
@@ -28871,7 +28874,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="94" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:44" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A94" s="9"/>
       <c r="B94" s="9" t="s">
         <v>22</v>
@@ -29139,7 +29142,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="97" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A97" s="9"/>
       <c r="B97" s="9" t="s">
         <v>22</v>
@@ -29223,7 +29226,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="98" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="9" t="s">
         <v>22</v>
@@ -29323,7 +29326,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="99" spans="1:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:44" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="9" t="s">
         <v>22</v>
@@ -29512,7 +29515,7 @@
         <v>29</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C101" s="128" t="s">
         <v>214</v>
@@ -29813,7 +29816,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="105" spans="1:44" ht="26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:44" ht="39" x14ac:dyDescent="0.35">
       <c r="A105" s="9"/>
       <c r="B105" s="9" t="s">
         <v>22</v>
@@ -29893,7 +29896,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="106" spans="1:44" ht="26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:44" ht="52" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>22</v>
       </c>
@@ -30418,7 +30421,7 @@
         <v>29</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C112" s="128" t="s">
         <v>214</v>
@@ -30498,7 +30501,7 @@
         <v>29</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C113" s="128" t="s">
         <v>214</v>
@@ -31098,7 +31101,7 @@
         <v>29</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C121" s="128" t="s">
         <v>214</v>
@@ -31176,7 +31179,7 @@
         <v>29</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C122" s="128" t="s">
         <v>214</v>
@@ -31240,7 +31243,7 @@
         <v>29</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C123" s="128" t="s">
         <v>214</v>
@@ -36360,6 +36363,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU123:AW123 BF123:BH123 BQ123:BS123 BA123:BB123 BL123:BM123 AN6:AO122 AN143:AO143 T6:U179 AD6:AE179 O6:P179 Y6:Z179 AP123:AP147 AK156:AK179 AO123:AO142 AK123:AK142 AO144:AO147 AO148:AP179 AI6:AJ179 AK154 AK144:AK152 J6:K179" xr:uid="{9166C9E9-AC65-4441-8855-34BD544D83A7}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -36483,17 +36487,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="E3" s="169" t="s">
+      <c r="E3" s="170" t="s">
         <v>397</v>
       </c>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
     </row>
     <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="J5" s="170" t="s">
+      <c r="J5" s="171" t="s">
         <v>398</v>
       </c>
-      <c r="K5" s="171"/>
+      <c r="K5" s="172"/>
     </row>
     <row r="6" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C6" s="29" t="s">
@@ -36528,7 +36532,7 @@
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="173" t="s">
         <v>409</v>
       </c>
       <c r="D7" s="78"/>
@@ -36542,7 +36546,7 @@
       <c r="L7" s="79"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C8" s="173"/>
+      <c r="C8" s="174"/>
       <c r="D8" s="78"/>
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
@@ -36554,7 +36558,7 @@
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C9" s="173"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="78"/>
       <c r="E9" s="78"/>
       <c r="F9" s="78"/>
@@ -36566,7 +36570,7 @@
       <c r="L9" s="80"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C10" s="173"/>
+      <c r="C10" s="174"/>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
@@ -36578,7 +36582,7 @@
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C11" s="173"/>
+      <c r="C11" s="174"/>
       <c r="D11" s="78"/>
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
@@ -36590,7 +36594,7 @@
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="173"/>
+      <c r="C12" s="174"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -36602,7 +36606,7 @@
       <c r="L12" s="19"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="173"/>
+      <c r="C13" s="174"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -36614,7 +36618,7 @@
       <c r="L13" s="19"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="173"/>
+      <c r="C14" s="174"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -36626,7 +36630,7 @@
       <c r="L14" s="19"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="173"/>
+      <c r="C15" s="174"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -36638,7 +36642,7 @@
       <c r="L15" s="19"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="173"/>
+      <c r="C16" s="174"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -36650,7 +36654,7 @@
       <c r="L16" s="19"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="173"/>
+      <c r="C17" s="174"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -36662,7 +36666,7 @@
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="173"/>
+      <c r="C18" s="174"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -36674,7 +36678,7 @@
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="173"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -36704,8 +36708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED98BEE-9FDE-48A4-86A8-C4DE755C63D7}">
   <dimension ref="B1:BN81"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37511,85 +37515,85 @@
     </row>
     <row r="48" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="49" spans="3:66" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="183" t="s">
+      <c r="D49" s="184" t="s">
         <v>442</v>
       </c>
-      <c r="E49" s="184"/>
-      <c r="F49" s="184"/>
-      <c r="G49" s="184"/>
-      <c r="H49" s="184"/>
-      <c r="I49" s="184"/>
-      <c r="J49" s="185"/>
-      <c r="K49" s="186" t="s">
+      <c r="E49" s="185"/>
+      <c r="F49" s="185"/>
+      <c r="G49" s="185"/>
+      <c r="H49" s="185"/>
+      <c r="I49" s="185"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="187" t="s">
         <v>443</v>
       </c>
-      <c r="L49" s="187"/>
-      <c r="M49" s="187"/>
-      <c r="N49" s="187"/>
-      <c r="O49" s="187"/>
-      <c r="P49" s="187"/>
-      <c r="Q49" s="187"/>
-      <c r="R49" s="188"/>
-      <c r="S49" s="189" t="s">
+      <c r="L49" s="188"/>
+      <c r="M49" s="188"/>
+      <c r="N49" s="188"/>
+      <c r="O49" s="188"/>
+      <c r="P49" s="188"/>
+      <c r="Q49" s="188"/>
+      <c r="R49" s="189"/>
+      <c r="S49" s="190" t="s">
         <v>444</v>
       </c>
-      <c r="T49" s="190"/>
-      <c r="U49" s="190"/>
-      <c r="V49" s="190"/>
-      <c r="W49" s="190"/>
-      <c r="X49" s="190"/>
-      <c r="Y49" s="190"/>
-      <c r="Z49" s="191"/>
-      <c r="AA49" s="192" t="s">
+      <c r="T49" s="191"/>
+      <c r="U49" s="191"/>
+      <c r="V49" s="191"/>
+      <c r="W49" s="191"/>
+      <c r="X49" s="191"/>
+      <c r="Y49" s="191"/>
+      <c r="Z49" s="192"/>
+      <c r="AA49" s="193" t="s">
         <v>445</v>
       </c>
-      <c r="AB49" s="193"/>
-      <c r="AC49" s="193"/>
-      <c r="AD49" s="193"/>
-      <c r="AE49" s="193"/>
-      <c r="AF49" s="193"/>
-      <c r="AG49" s="193"/>
-      <c r="AH49" s="194"/>
-      <c r="AI49" s="195" t="s">
+      <c r="AB49" s="194"/>
+      <c r="AC49" s="194"/>
+      <c r="AD49" s="194"/>
+      <c r="AE49" s="194"/>
+      <c r="AF49" s="194"/>
+      <c r="AG49" s="194"/>
+      <c r="AH49" s="195"/>
+      <c r="AI49" s="196" t="s">
         <v>446</v>
       </c>
-      <c r="AJ49" s="196"/>
-      <c r="AK49" s="196"/>
-      <c r="AL49" s="196"/>
-      <c r="AM49" s="196"/>
-      <c r="AN49" s="196"/>
-      <c r="AO49" s="196"/>
-      <c r="AP49" s="197"/>
-      <c r="AQ49" s="174" t="s">
+      <c r="AJ49" s="197"/>
+      <c r="AK49" s="197"/>
+      <c r="AL49" s="197"/>
+      <c r="AM49" s="197"/>
+      <c r="AN49" s="197"/>
+      <c r="AO49" s="197"/>
+      <c r="AP49" s="198"/>
+      <c r="AQ49" s="175" t="s">
         <v>447</v>
       </c>
-      <c r="AR49" s="175"/>
-      <c r="AS49" s="175"/>
-      <c r="AT49" s="175"/>
-      <c r="AU49" s="175"/>
-      <c r="AV49" s="175"/>
-      <c r="AW49" s="175"/>
-      <c r="AX49" s="176"/>
-      <c r="AY49" s="177" t="s">
+      <c r="AR49" s="176"/>
+      <c r="AS49" s="176"/>
+      <c r="AT49" s="176"/>
+      <c r="AU49" s="176"/>
+      <c r="AV49" s="176"/>
+      <c r="AW49" s="176"/>
+      <c r="AX49" s="177"/>
+      <c r="AY49" s="178" t="s">
         <v>448</v>
       </c>
-      <c r="AZ49" s="178"/>
-      <c r="BA49" s="178"/>
-      <c r="BB49" s="178"/>
-      <c r="BC49" s="178"/>
-      <c r="BD49" s="178"/>
-      <c r="BE49" s="178"/>
-      <c r="BF49" s="179"/>
-      <c r="BG49" s="180" t="s">
+      <c r="AZ49" s="179"/>
+      <c r="BA49" s="179"/>
+      <c r="BB49" s="179"/>
+      <c r="BC49" s="179"/>
+      <c r="BD49" s="179"/>
+      <c r="BE49" s="179"/>
+      <c r="BF49" s="180"/>
+      <c r="BG49" s="181" t="s">
         <v>449</v>
       </c>
-      <c r="BH49" s="181"/>
-      <c r="BI49" s="181"/>
-      <c r="BJ49" s="181"/>
-      <c r="BK49" s="181"/>
-      <c r="BL49" s="181"/>
-      <c r="BM49" s="181"/>
-      <c r="BN49" s="182"/>
+      <c r="BH49" s="182"/>
+      <c r="BI49" s="182"/>
+      <c r="BJ49" s="182"/>
+      <c r="BK49" s="182"/>
+      <c r="BL49" s="182"/>
+      <c r="BM49" s="182"/>
+      <c r="BN49" s="183"/>
     </row>
     <row r="50" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="20" t="s">
@@ -40059,29 +40063,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -40282,25 +40263,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E99ECB8B-6C19-4004-8E31-48D69C25D797}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40317,4 +40303,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/script_master_data_beltran/ficherosExcelOrigen/DED-NAUA_Plantilla_Adopcion IA.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-NAUA_Plantilla_Adopcion IA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50058CCF-9E9C-4984-BFCE-8A2D7863EBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214503CB-3417-4B4C-A94C-9B5EB748387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="460">
   <si>
     <t>GISS-DED - Adopción IA: &lt;Proyecto XXX&gt;</t>
   </si>
@@ -1433,13 +1433,22 @@
   </si>
   <si>
     <t>prompts</t>
+  </si>
+  <si>
+    <t>Refectorizar</t>
+  </si>
+  <si>
+    <t>Comprender Codigo Fuente</t>
+  </si>
+  <si>
+    <t>Analisis Desa APIs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1584,14 +1593,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -2465,7 +2466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2755,7 +2756,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -21529,10 +21529,10 @@
   <dimension ref="A1:BS197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="AQ6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS12" sqref="AS12"/>
+      <selection pane="bottomRight" activeCell="AS14" sqref="AS14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -21785,7 +21785,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -21848,11 +21848,11 @@
         <f>IF(D6="","",IF(OR(H6="S",M6="S",R6="S",W6="S",AB6="S",AG6="S",AL6="S"),"S","N"))</f>
         <v>N</v>
       </c>
-      <c r="AS6" s="4" t="s">
+      <c r="AS6" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -21915,11 +21915,11 @@
         <f t="shared" ref="AR7:AR70" si="1">IF(D7="","",IF(OR(H7="S",M7="S",R7="S",W7="S",AB7="S",AG7="S",AL7="S"),"S","N"))</f>
         <v>N</v>
       </c>
-      <c r="AS7" s="4" t="s">
+      <c r="AS7" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -21982,11 +21982,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS8" s="4" t="s">
-        <v>4</v>
+      <c r="AS8" s="10" t="s">
+        <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -22063,11 +22063,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS9" s="4" t="s">
-        <v>5</v>
+      <c r="AS9" s="10" t="s">
+        <v>458</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>22</v>
@@ -22128,11 +22128,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS10" s="4" t="s">
-        <v>6</v>
+      <c r="AS10" s="10" t="s">
+        <v>459</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
@@ -22207,11 +22207,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS11" s="4" t="s">
+      <c r="AS11" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -22286,11 +22286,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS12" s="169" t="s">
+      <c r="AS12" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
@@ -22365,6 +22365,7 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
+      <c r="AS13" s="10"/>
     </row>
     <row r="14" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
@@ -36487,17 +36488,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="E3" s="170" t="s">
+      <c r="E3" s="169" t="s">
         <v>397</v>
       </c>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
     </row>
     <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="J5" s="171" t="s">
+      <c r="J5" s="170" t="s">
         <v>398</v>
       </c>
-      <c r="K5" s="172"/>
+      <c r="K5" s="171"/>
     </row>
     <row r="6" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C6" s="29" t="s">
@@ -36532,7 +36533,7 @@
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="172" t="s">
         <v>409</v>
       </c>
       <c r="D7" s="78"/>
@@ -36546,7 +36547,7 @@
       <c r="L7" s="79"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C8" s="174"/>
+      <c r="C8" s="173"/>
       <c r="D8" s="78"/>
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
@@ -36558,7 +36559,7 @@
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C9" s="174"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="78"/>
       <c r="E9" s="78"/>
       <c r="F9" s="78"/>
@@ -36570,7 +36571,7 @@
       <c r="L9" s="80"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C10" s="174"/>
+      <c r="C10" s="173"/>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
@@ -36582,7 +36583,7 @@
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C11" s="174"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="78"/>
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
@@ -36594,7 +36595,7 @@
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="174"/>
+      <c r="C12" s="173"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -36606,7 +36607,7 @@
       <c r="L12" s="19"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="174"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -36618,7 +36619,7 @@
       <c r="L13" s="19"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="174"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -36630,7 +36631,7 @@
       <c r="L14" s="19"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="174"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -36642,7 +36643,7 @@
       <c r="L15" s="19"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="174"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -36654,7 +36655,7 @@
       <c r="L16" s="19"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="174"/>
+      <c r="C17" s="173"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -36666,7 +36667,7 @@
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="174"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -36678,7 +36679,7 @@
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="174"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -37515,85 +37516,85 @@
     </row>
     <row r="48" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="49" spans="3:66" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="184" t="s">
+      <c r="D49" s="183" t="s">
         <v>442</v>
       </c>
-      <c r="E49" s="185"/>
-      <c r="F49" s="185"/>
-      <c r="G49" s="185"/>
-      <c r="H49" s="185"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="187" t="s">
+      <c r="E49" s="184"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="184"/>
+      <c r="H49" s="184"/>
+      <c r="I49" s="184"/>
+      <c r="J49" s="185"/>
+      <c r="K49" s="186" t="s">
         <v>443</v>
       </c>
-      <c r="L49" s="188"/>
-      <c r="M49" s="188"/>
-      <c r="N49" s="188"/>
-      <c r="O49" s="188"/>
-      <c r="P49" s="188"/>
-      <c r="Q49" s="188"/>
-      <c r="R49" s="189"/>
-      <c r="S49" s="190" t="s">
+      <c r="L49" s="187"/>
+      <c r="M49" s="187"/>
+      <c r="N49" s="187"/>
+      <c r="O49" s="187"/>
+      <c r="P49" s="187"/>
+      <c r="Q49" s="187"/>
+      <c r="R49" s="188"/>
+      <c r="S49" s="189" t="s">
         <v>444</v>
       </c>
-      <c r="T49" s="191"/>
-      <c r="U49" s="191"/>
-      <c r="V49" s="191"/>
-      <c r="W49" s="191"/>
-      <c r="X49" s="191"/>
-      <c r="Y49" s="191"/>
-      <c r="Z49" s="192"/>
-      <c r="AA49" s="193" t="s">
+      <c r="T49" s="190"/>
+      <c r="U49" s="190"/>
+      <c r="V49" s="190"/>
+      <c r="W49" s="190"/>
+      <c r="X49" s="190"/>
+      <c r="Y49" s="190"/>
+      <c r="Z49" s="191"/>
+      <c r="AA49" s="192" t="s">
         <v>445</v>
       </c>
-      <c r="AB49" s="194"/>
-      <c r="AC49" s="194"/>
-      <c r="AD49" s="194"/>
-      <c r="AE49" s="194"/>
-      <c r="AF49" s="194"/>
-      <c r="AG49" s="194"/>
-      <c r="AH49" s="195"/>
-      <c r="AI49" s="196" t="s">
+      <c r="AB49" s="193"/>
+      <c r="AC49" s="193"/>
+      <c r="AD49" s="193"/>
+      <c r="AE49" s="193"/>
+      <c r="AF49" s="193"/>
+      <c r="AG49" s="193"/>
+      <c r="AH49" s="194"/>
+      <c r="AI49" s="195" t="s">
         <v>446</v>
       </c>
-      <c r="AJ49" s="197"/>
-      <c r="AK49" s="197"/>
-      <c r="AL49" s="197"/>
-      <c r="AM49" s="197"/>
-      <c r="AN49" s="197"/>
-      <c r="AO49" s="197"/>
-      <c r="AP49" s="198"/>
-      <c r="AQ49" s="175" t="s">
+      <c r="AJ49" s="196"/>
+      <c r="AK49" s="196"/>
+      <c r="AL49" s="196"/>
+      <c r="AM49" s="196"/>
+      <c r="AN49" s="196"/>
+      <c r="AO49" s="196"/>
+      <c r="AP49" s="197"/>
+      <c r="AQ49" s="174" t="s">
         <v>447</v>
       </c>
-      <c r="AR49" s="176"/>
-      <c r="AS49" s="176"/>
-      <c r="AT49" s="176"/>
-      <c r="AU49" s="176"/>
-      <c r="AV49" s="176"/>
-      <c r="AW49" s="176"/>
-      <c r="AX49" s="177"/>
-      <c r="AY49" s="178" t="s">
+      <c r="AR49" s="175"/>
+      <c r="AS49" s="175"/>
+      <c r="AT49" s="175"/>
+      <c r="AU49" s="175"/>
+      <c r="AV49" s="175"/>
+      <c r="AW49" s="175"/>
+      <c r="AX49" s="176"/>
+      <c r="AY49" s="177" t="s">
         <v>448</v>
       </c>
-      <c r="AZ49" s="179"/>
-      <c r="BA49" s="179"/>
-      <c r="BB49" s="179"/>
-      <c r="BC49" s="179"/>
-      <c r="BD49" s="179"/>
-      <c r="BE49" s="179"/>
-      <c r="BF49" s="180"/>
-      <c r="BG49" s="181" t="s">
+      <c r="AZ49" s="178"/>
+      <c r="BA49" s="178"/>
+      <c r="BB49" s="178"/>
+      <c r="BC49" s="178"/>
+      <c r="BD49" s="178"/>
+      <c r="BE49" s="178"/>
+      <c r="BF49" s="179"/>
+      <c r="BG49" s="180" t="s">
         <v>449</v>
       </c>
-      <c r="BH49" s="182"/>
-      <c r="BI49" s="182"/>
-      <c r="BJ49" s="182"/>
-      <c r="BK49" s="182"/>
-      <c r="BL49" s="182"/>
-      <c r="BM49" s="182"/>
-      <c r="BN49" s="183"/>
+      <c r="BH49" s="181"/>
+      <c r="BI49" s="181"/>
+      <c r="BJ49" s="181"/>
+      <c r="BK49" s="181"/>
+      <c r="BL49" s="181"/>
+      <c r="BM49" s="181"/>
+      <c r="BN49" s="182"/>
     </row>
     <row r="50" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="20" t="s">
@@ -40063,6 +40064,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -40263,30 +40287,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E99ECB8B-6C19-4004-8E31-48D69C25D797}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40303,22 +40322,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>